--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -70,7 +70,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,6 +51,7 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -70,7 +71,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -51,12 +51,14 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border/>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -71,9 +73,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -535,22 +541,42 @@
       <c r="D6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>Here comes the signature Here comes the signature Here comes the signature</t>
         </is>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+    <row r="7">
+      <c r="E7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="8" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,9 +49,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <bottom style="thin"/>
     </border>
   </borders>
@@ -79,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -55,28 +55,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -468,6 +462,9 @@
           <t>Intertrust (Luxembourg) S.à r.l.</t>
         </is>
       </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -475,11 +472,14 @@
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée registered with the Luxembourg Trade and Companies Register under number B 103123</t>
         </is>
       </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -487,20 +487,29 @@
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+    </row>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
@@ -515,7 +524,7 @@
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
@@ -538,42 +547,76 @@
       <c r="D6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Here comes the signature Here comes the signature Here comes the signature</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="E7" s="8" t="n"/>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="E8" s="8" t="n"/>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="E9" s="8" t="n"/>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="E10" s="8" t="n"/>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="E11" s="8" t="n"/>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="E12" s="8" t="n"/>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="E13" s="8" t="n"/>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="E14" s="8" t="n"/>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="E15" s="8" t="n"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="8" t="n"/>
-    </row>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -616,7 +616,13 @@
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
     </row>
-    <row r="16"/>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -55,14 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -71,6 +73,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -462,9 +465,6 @@
           <t>Intertrust (Luxembourg) S.à r.l.</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -472,14 +472,11 @@
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée registered with the Luxembourg Trade and Companies Register under number B 103123</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -487,29 +484,20 @@
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-    </row>
+    </row>
+    <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
@@ -524,7 +512,7 @@
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
@@ -554,75 +542,69 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-    </row>
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+    </row>
+    <row r="16"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,11 +51,14 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -74,6 +77,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -604,7 +608,13 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
     </row>
-    <row r="16"/>
+    <row r="16">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,14 +51,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -77,7 +74,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -609,11 +605,11 @@
       <c r="E15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +611,20 @@
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
     </row>
+    <row r="17">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,11 +51,14 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -74,6 +77,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,26 +608,13 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-    </row>
+    <row r="16"/>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="A17" s="8" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,10 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
     </border>
     <border>
       <bottom style="thin"/>
@@ -77,7 +81,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,13 +612,12 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
     </row>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
+    <row r="16">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,10 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
     </border>
     <border>
       <bottom style="thin"/>
@@ -81,7 +77,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -577,41 +573,11 @@
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="8" t="n"/>
       <c r="B16" s="8" t="n"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -541,7 +541,9 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>Here comes the signature Here comes the signature Here comes the signature</t>
+          <t xml:space="preserve">Name: Alexandru Blagan .
+ Title: Manager .
+ Date:   </t>
         </is>
       </c>
     </row>
@@ -573,11 +575,41 @@
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="11">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+    </row>
     <row r="16">
       <c r="A16" s="8" t="n"/>
       <c r="B16" s="8" t="n"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -74,6 +74,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -539,83 +542,72 @@
       <c r="D6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Name: Alexandru Blagan .
- Title: Manager .
- Date:   </t>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>signature</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="A10" s="8" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
+      <c r="A11" s="8" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -74,9 +74,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -542,78 +539,81 @@
       <c r="D6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>signature</t>
-        </is>
-      </c>
+      <c r="E6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E6:E16"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="D6:D16"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -58,16 +58,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,12 +484,12 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
@@ -496,119 +497,119 @@
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>28-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Purchase</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>1200000</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="7" t="n"/>
+      <c r="E6" s="8" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="A10" s="8" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
+      <c r="A11" s="8" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -58,17 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -77,7 +74,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +466,10 @@
           <t>Intertrust (Luxembourg) S.à r.l.</t>
         </is>
       </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -477,23 +477,31 @@
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée registered with the Luxembourg Trade and Companies Register under number B 103123</t>
         </is>
       </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
       </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
@@ -507,12 +515,12 @@
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
@@ -524,97 +532,113 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>28-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Purchase</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="8" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>signature</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E6:E16"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="D6:D16"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -54,11 +54,16 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -71,9 +76,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,86 +559,86 @@
           <t>signature</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1(Intertrust (Luxembourg) S.à r.l.)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1(Intertrust (Luxembourg) S.à r.l.)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2(Partners Group Access PF 5556 (UK) L.P.)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -56,31 +58,84 @@
     </border>
     <border>
       <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
       <right style="thin"/>
       <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,7 +501,364 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="70" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>PG Investment Company 60 S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Société à responsabilité limitée</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Registered office: 6, rue Eugène Ruppert, L-2453 Luxembourg</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>R.C.S. Luxembourg : B 281306e</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Share capital:EUR 1234</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Amendments to the articles of association of the Company</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Notary:</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notary: </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Place:</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place: </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Notary:</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notary: </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Place:</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place: </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Notary:</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notary: </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Place:</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place: </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Notary:</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notary: </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Place:</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place: </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,184 +874,454 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Shareholder:</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Intertrust (Luxembourg) S.à r.l.</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée registered with the Luxembourg Trade and Companies Register under number B 103123</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>28-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Purchase</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="16" t="n">
         <v>1200000</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="16" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
       </c>
-      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-    </row>
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>31-05-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="16" t="inlineStr">
+        <is>
+          <t>Subscription</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="E17:E27"/>
+    <mergeCell ref="D17:D27"/>
+    <mergeCell ref="E6:E16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:B16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Shareholder:</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Partners Group Access PF 5556 (UK) L.P.</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Legal form:</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>Limited partnership registered with the Registrar of Companies for Scotland under number SL36397</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>Address:</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>50 Lothian Road, Festival Square, Edinburgh, Scotland, United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1"/>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Subscription/acquisition</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Shares transferred/ converted/ subscribed</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>Total number of shares:</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>31-05-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>Subscription</t>
+        </is>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>1059815</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>1059815</v>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+    </row>
+    <row r="16"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:E4"/>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -124,11 +124,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,50 +923,50 @@
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="17" t="inlineStr">
         <is>
           <t>28-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>Purchase</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>1200000</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <v>1200000</v>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
@@ -1034,23 +1037,23 @@
     </row>
     <row r="16"/>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="17" t="inlineStr">
         <is>
           <t>31-05-2024</t>
         </is>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>Subscription</t>
         </is>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="17" t="n">
         <v>1200000</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <v>2400000</v>
       </c>
-      <c r="E17" s="16" t="inlineStr">
+      <c r="E17" s="17" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
@@ -1209,50 +1212,50 @@
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="17" t="inlineStr">
         <is>
           <t>31-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>Subscription</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>1059815</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <v>1059815</v>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>signature</t>
         </is>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -55,6 +55,13 @@
     </border>
     <border>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border/>
+    <border>
+      <left style="thin"/>
     </border>
     <border>
       <left style="thin"/>
@@ -76,10 +83,32 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <right style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -96,30 +125,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -127,9 +162,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,324 +550,325 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
-      <c r="C1" s="2" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>PG Investment Company 60 S.à r.l.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
+      <c r="C2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n"/>
+      <c r="C3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Registered office: 6, rue Eugène Ruppert, L-2453 Luxembourg</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
+      <c r="C4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>R.C.S. Luxembourg : B 281306e</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Share capital:EUR 1234</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Amendments to the articles of association of the Company</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="2" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Notary:</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Notary: </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>Place:</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Place: </t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>Notary:</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Notary: </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>Place:</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Place: </t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>Notary:</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Notary: </t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Place:</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Place: </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>Notary:</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Notary: </t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Place:</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Place: </t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C23" s="14" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -877,252 +910,274 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Shareholder:</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>Intertrust (Luxembourg) S.à r.l.</t>
         </is>
       </c>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
+      <c r="C1" s="17" t="n"/>
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Société à responsabilité limitée registered with the Luxembourg Trade and Companies Register under number B 103123</t>
         </is>
       </c>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>6, rue Eugène Ruppert, L-2453, Luxembourg, Grand Duchy of Luxembourg</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
+      <c r="C3" s="17" t="n"/>
+      <c r="D3" s="17" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="19" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="inlineStr">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>28-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>Purchase</t>
-        </is>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="D6" s="17" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="E6" s="17" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Acquisition of shares from shareholder B</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purchase of 1200000.00 shares, with a nominal value of EUR N </t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>1200000.00
+ shares</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="17" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="17" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-    </row>
-    <row r="16"/>
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="17" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="17" t="n"/>
+      <c r="E16" s="17" t="n"/>
+    </row>
     <row r="17">
-      <c r="A17" s="17" t="inlineStr">
+      <c r="A17" s="20" t="inlineStr">
         <is>
           <t>31-05-2024</t>
         </is>
       </c>
-      <c r="B17" s="17" t="inlineStr">
-        <is>
-          <t>Subscription</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="D17" s="17" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>Incorporation of the Company</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subscription of 1200000.00 shares, with a nominal value of EUR N </t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr">
+        <is>
+          <t>2400000.00
+ shares</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="17" t="n"/>
+      <c r="E18" s="17" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="17" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="17" t="n"/>
+      <c r="E20" s="17" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="17" t="n"/>
+      <c r="E21" s="17" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="17" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
+      <c r="A24" s="17" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="17" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
+      <c r="A25" s="17" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="17" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-    </row>
-    <row r="27"/>
+      <c r="A26" s="17" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="n"/>
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="17" t="n"/>
+      <c r="E27" s="17" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A4:E4"/>
@@ -1150,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,169 +1221,283 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Shareholder:</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>Partners Group Access PF 5556 (UK) L.P.</t>
         </is>
       </c>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
+      <c r="C1" s="17" t="n"/>
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>Legal form:</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Limited partnership registered with the Registrar of Companies for Scotland under number SL36397</t>
         </is>
       </c>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Address:</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>50 Lothian Road, Festival Square, Edinburgh, Scotland, United Kingdom</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
+      <c r="C3" s="17" t="n"/>
+      <c r="D3" s="17" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1"/>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Subscription/acquisition</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="19" t="inlineStr">
         <is>
           <t>Shares transferred/ converted/ subscribed</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>Total number of shares:</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="inlineStr">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>31-05-2024</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>Subscription</t>
-        </is>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>1059815</v>
-      </c>
-      <c r="D6" s="17" t="n">
-        <v>1059815</v>
-      </c>
-      <c r="E6" s="17" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Incorporation of the Company</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subscription of 1059815.00 shares, with a nominal value of EUR N </t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>1059815.00
+ shares</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>signature</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="17" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="17" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-    </row>
-    <row r="16"/>
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="17" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="17" t="n"/>
+      <c r="E16" s="17" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="inlineStr">
+        <is>
+          <t>05-06-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>Acquisition of shares from shareholder B</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purchase of 5000.00 shares, with a nominal value of EUR N </t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr">
+        <is>
+          <t>1064815.00
+ shares</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="17" t="n"/>
+      <c r="E18" s="17" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="17" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="17" t="n"/>
+      <c r="E20" s="17" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="17" t="n"/>
+      <c r="E21" s="17" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="17" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="17" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="17" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="n"/>
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="17" t="n"/>
+      <c r="E27" s="17" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="E17:E27"/>
+    <mergeCell ref="D17:D27"/>
     <mergeCell ref="E6:E16"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="A6:A16"/>
